--- a/Test/TestData/test_data.xlsx
+++ b/Test/TestData/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfnsh\PycharmProjects\SharebusWebUIAutomation\Test\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164590C6-0EE0-454A-B902-4C163EF2A604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5539A5-047B-4ADF-A1C0-54FF6923EC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="configuration" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>frontend_url</t>
   </si>
@@ -64,9 +64,6 @@
     <t>project_name</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>rfnshare@gmail.com</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
     <t>sharebuses</t>
   </si>
   <si>
-    <t>https://test.sharebus.co</t>
-  </si>
-  <si>
     <t>https://sharebus.co/</t>
   </si>
   <si>
@@ -100,7 +94,19 @@
     <t>Pass@1234</t>
   </si>
   <si>
-    <t>Edge</t>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>https://example.com</t>
+  </si>
+  <si>
+    <t>test_type</t>
+  </si>
+  <si>
+    <t>smoke</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -491,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,13 +508,13 @@
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.140625" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="5" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
@@ -523,37 +529,46 @@
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6" t="str">
         <f>VLOOKUP(A2,urls!A1:B3,2,FALSE)</f>
-        <v>https://test.sharebus.co</v>
+        <v>https://example.com</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"no, yes"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Chrome, Firefox, Edge, Opera"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{931CA669-C244-4787-9EB3-B0C8F613593C}">
+      <formula1>"smoke, regression"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -602,10 +617,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -637,7 +652,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,34 +662,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{61F225A1-7A89-4AFF-89D7-1DD5E80A2DC2}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{038D00E3-CC8B-4662-940A-E47280E10213}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{851D8AD6-6E7E-4BB3-9533-E7A1BD33EAD9}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{038D00E3-CC8B-4662-940A-E47280E10213}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{851D8AD6-6E7E-4BB3-9533-E7A1BD33EAD9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Test/TestData/test_data.xlsx
+++ b/Test/TestData/test_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfnsh\PycharmProjects\SharebusWebUIAutomation\Test\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdullah.faroque\PycharmProjects\Sharebus-Web-UI-Automation\Test\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5539A5-047B-4ADF-A1C0-54FF6923EC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB024A5-261E-4B45-B223-957AB932019C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,19 +18,6 @@
     <sheet name="urls" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -500,19 +487,19 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="5" max="6" width="12.81640625" customWidth="1"/>
+    <col min="7" max="7" width="24.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -535,16 +522,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="6" t="str">
         <f>VLOOKUP(A2,urls!A1:B3,2,FALSE)</f>
-        <v>https://example.com</v>
+        <v>https://sharebus.co/</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>19</v>
@@ -596,15 +583,15 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -612,7 +599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -623,7 +610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
@@ -631,7 +618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -655,12 +642,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -668,7 +655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -676,7 +663,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
